--- a/medicine/Enfance/Bernadette_Després/Bernadette_Després.xlsx
+++ b/medicine/Enfance/Bernadette_Després/Bernadette_Després.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bernadette_Despr%C3%A9s</t>
+          <t>Bernadette_Després</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernadette Després, née le 28 mars 1941[1] à Paris, est une illustratrice et autrice de bandes dessinées française. Elle est principalement célèbre pour être l'illustratrice de la série Tom-Tom et Nana qui paraît dans le magazine J'aime lire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette Després, née le 28 mars 1941 à Paris, est une illustratrice et autrice de bandes dessinées française. Elle est principalement célèbre pour être l'illustratrice de la série Tom-Tom et Nana qui paraît dans le magazine J'aime lire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bernadette_Despr%C3%A9s</t>
+          <t>Bernadette_Després</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernadette Després est la cinquième enfant d'une fratrie de huit enfants[2]. Bernadette Després suit les cours de l'École des Arts Décoratifs de la rue Beethoven à Paris[3]. Elle débute dans le métier d'illustratrice pour les journaux de Bayard Presse et travaille ensuite pour différents éditeurs de jeunesse[4], notamment les éditions La Farandole qui publient en 1965 son premier livre et où elle est l'illustratrice d'autrices « maison », telles Madeleine Gilard et Andrée Clair.
-Attirée par les modes d'expression des jeunes enfants, elle participe à des animations organisées dans les écoles autour de ses albums. Son premier ouvrage, en 1965, est Annie fait les courses[3]. À partir de 1973, elle réalise des livres-jeux avec Évelyne Reberg, dont Ma ville à l'envers (1975)[3].
-Bernadette Després est l'illustratrice de la célèbre série Tom-Tom et Nana, écrite par Jacqueline Cohen[4] et, à partir de 1986, Évelyne Reberg[3] ; la série paraît dans le magazine J'aime lire à partir de 1977 et s'inspire du franc-parler de Bécassine[3]. Després dessine aussi la série Lulu parue dans Astrapi. Elle prépare beaucoup d'illustrations sous forme de bandes dessinées et met en image avec humour des textes se rapportant à la vie quotidienne des enfants et de la famille.
-L'artiste est installée dans son atelier à Givraines (Loiret) depuis 1974[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette Després est la cinquième enfant d'une fratrie de huit enfants. Bernadette Després suit les cours de l'École des Arts Décoratifs de la rue Beethoven à Paris. Elle débute dans le métier d'illustratrice pour les journaux de Bayard Presse et travaille ensuite pour différents éditeurs de jeunesse, notamment les éditions La Farandole qui publient en 1965 son premier livre et où elle est l'illustratrice d'autrices « maison », telles Madeleine Gilard et Andrée Clair.
+Attirée par les modes d'expression des jeunes enfants, elle participe à des animations organisées dans les écoles autour de ses albums. Son premier ouvrage, en 1965, est Annie fait les courses. À partir de 1973, elle réalise des livres-jeux avec Évelyne Reberg, dont Ma ville à l'envers (1975).
+Bernadette Després est l'illustratrice de la célèbre série Tom-Tom et Nana, écrite par Jacqueline Cohen et, à partir de 1986, Évelyne Reberg ; la série paraît dans le magazine J'aime lire à partir de 1977 et s'inspire du franc-parler de Bécassine. Després dessine aussi la série Lulu parue dans Astrapi. Elle prépare beaucoup d'illustrations sous forme de bandes dessinées et met en image avec humour des textes se rapportant à la vie quotidienne des enfants et de la famille.
+L'artiste est installée dans son atelier à Givraines (Loiret) depuis 1974.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bernadette_Despr%C3%A9s</t>
+          <t>Bernadette_Després</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Annie fait les courses, coll. « mille images », éditions La Farandole, 1965
 Valérie fait de la peinture, coll. « mille images », éditions La Farandole, 1969
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bernadette_Despr%C3%A9s</t>
+          <t>Bernadette_Després</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,15 +614,17 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1990 : prix RTL pour Radio casserole et les premiers de la casse[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1990 : prix RTL pour Radio casserole et les premiers de la casse
 1993 : prix Versaele de La ligue des Familles de Belgique
 1999 : prix Alph-Art jeunesse, 7/8 ans Angoulême pour Dégâts à gogo
-septembre 2001 : prix spécial du public jeunesse au Festival de Darnétal pour la série Tom-Tom et Nana[5]
-2002 : lauréate du grand prix de l'humour tendre au Salon international du dessin de presse et d'humour de Saint-Just-le-Martel (Haute-Vienne)[5]
-2019 : un Fauve d'honneur lui est remis par Stéphane Beaujean, directeur artistique du Festival d'Angoulême, lors de la cérémonie des prix Découvertes[6]
-Le 31 décembre 2020, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « auteure et illustratrice d’ouvrages pour la jeunesse ; 56 ans de services »[7]. La décoration lui est remise le 28 août 2021[8].
+septembre 2001 : prix spécial du public jeunesse au Festival de Darnétal pour la série Tom-Tom et Nana
+2002 : lauréate du grand prix de l'humour tendre au Salon international du dessin de presse et d'humour de Saint-Just-le-Martel (Haute-Vienne)
+2019 : un Fauve d'honneur lui est remis par Stéphane Beaujean, directeur artistique du Festival d'Angoulême, lors de la cérémonie des prix Découvertes
+Le 31 décembre 2020, elle est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur au titre de « auteure et illustratrice d’ouvrages pour la jeunesse ; 56 ans de services ». La décoration lui est remise le 28 août 2021.
 </t>
         </is>
       </c>
@@ -617,7 +635,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bernadette_Despr%C3%A9s</t>
+          <t>Bernadette_Després</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,10 +653,12 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2017 : Exposition au Centre André-François (le Centre Régional de Ressources sur l'Album et l'Illustration situé à Margny-lès-Compiègne, dans l'Oise) du 25 avril au 26 août 2017 : Bernadette Després, Annie, Valérie, Nicole... Tom-Tom et Nana.
-2019 : le Festival d'Angoulême lui consacre une exposition intitulée Tout Bernadette Després dans le quartier Jeunesse du musée de la Bande dessinée[9]. Elle dessine également une des trois affiches du festival où elle se dessine enfant avec les lectures de sa jeunesse, des albums de Bécassine, Tintin, Zig et Puce, Gédéon, La Famille Fenouillard et Le Bon Toto et le Méchant Tom[10].</t>
+2019 : le Festival d'Angoulême lui consacre une exposition intitulée Tout Bernadette Després dans le quartier Jeunesse du musée de la Bande dessinée. Elle dessine également une des trois affiches du festival où elle se dessine enfant avec les lectures de sa jeunesse, des albums de Bécassine, Tintin, Zig et Puce, Gédéon, La Famille Fenouillard et Le Bon Toto et le Méchant Tom.</t>
         </is>
       </c>
     </row>
